--- a/data/13c_mfa/INCA_model_08302023_GR.xlsx
+++ b/data/13c_mfa/INCA_model_08302023_GR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettroell/yarrowia_eflux2/data/13c_mfa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B85CB7D-944C-A147-8063-BA826F4B6A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE4048F-3489-254E-A836-4F71F53DF5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="18880" activeTab="4" xr2:uid="{F5B582E7-5936-49E8-BD16-34BCB0ED06A3}"/>
+    <workbookView xWindow="0" yWindow="1300" windowWidth="35840" windowHeight="18100" activeTab="4" xr2:uid="{F5B582E7-5936-49E8-BD16-34BCB0ED06A3}"/>
   </bookViews>
   <sheets>
     <sheet name="gluc 0830" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="456">
   <si>
     <t>ID</t>
   </si>
@@ -1495,6 +1495,9 @@
   </si>
   <si>
     <t>oleic_acid_UB</t>
+  </si>
+  <si>
+    <t>biomass_C or biomass_glucose or biomass_oleic_acid</t>
   </si>
 </sst>
 </file>
@@ -12874,8 +12877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9CB9C0-44CE-6749-8BCD-EED0A07465F3}">
   <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16981,7 +16984,7 @@
         <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="E68" t="s">
         <v>423</v>

--- a/data/13c_mfa/INCA_model_08302023_GR.xlsx
+++ b/data/13c_mfa/INCA_model_08302023_GR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettroell/yarrowia_eflux2/data/13c_mfa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE4048F-3489-254E-A836-4F71F53DF5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C049741E-BE89-5C47-B96A-CE8E0228B57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1300" windowWidth="35840" windowHeight="18100" activeTab="4" xr2:uid="{F5B582E7-5936-49E8-BD16-34BCB0ED06A3}"/>
   </bookViews>
@@ -1497,7 +1497,7 @@
     <t>oleic_acid_UB</t>
   </si>
   <si>
-    <t>biomass_C or biomass_glucose or biomass_oleic_acid</t>
+    <t>biomass_C or biomass_glucose or biomass_oil</t>
   </si>
 </sst>
 </file>
@@ -12878,7 +12878,7 @@
   <dimension ref="A1:U74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
